--- a/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/流程统计数据规则(1).xlsx
+++ b/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/流程统计数据规则(1).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangzuogong/IdeaProjects/ike-date/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1331C2F-BDCF-8046-A369-266F08557B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取值逻辑" sheetId="1" r:id="rId1"/>
@@ -30,32 +36,21 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
-    <t>当前数量</t>
-  </si>
-  <si>
     <t>取值逻辑</t>
   </si>
   <si>
-    <t>本月平均周期（月度？）</t>
-  </si>
-  <si>
-    <t>日新增数量</t>
-  </si>
-  <si>
     <t>日消耗数量</t>
   </si>
   <si>
     <t>采购申请</t>
   </si>
   <si>
-    <t>SAP已审批未转订单的采购申请行数量</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -69,6 +64,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -79,6 +75,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -92,6 +89,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -102,6 +100,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -109,14 +108,12 @@
     </r>
   </si>
   <si>
-    <t>（采购申请转订单日期-采购申请首次审批时间）/数量</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -130,6 +127,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -140,6 +138,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -151,6 +150,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -161,6 +161,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -172,6 +173,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -182,6 +184,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -197,6 +200,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -207,6 +211,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -217,6 +222,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -232,6 +238,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -242,6 +249,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -252,6 +260,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -262,6 +271,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -272,6 +282,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -293,6 +304,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -466,18 +478,32 @@
   <si>
     <t>外购采购组</t>
   </si>
+  <si>
+    <t>（采购申请转订单日期-采购申请首次审批时间）/数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAP已审批未转订单的采购申请行数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本月平均周期（月度？）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日新增数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,155 +515,27 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -650,194 +548,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -860,251 +572,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1115,14 +585,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1130,65 +594,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1446,347 +872,346 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="21.0916666666667" customWidth="1"/>
-    <col min="2" max="2" width="35.9666666666667" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
-    <col min="4" max="4" width="58.325" customWidth="1"/>
-    <col min="5" max="5" width="31.25" customWidth="1"/>
-    <col min="6" max="6" width="34.85" customWidth="1"/>
-    <col min="7" max="7" width="24.4333333333333" customWidth="1"/>
-    <col min="8" max="8" width="26.525" customWidth="1"/>
-    <col min="9" max="9" width="19.7166666666667" customWidth="1"/>
+    <col min="4" max="4" width="58.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" customWidth="1"/>
+    <col min="6" max="6" width="41.83203125" customWidth="1"/>
+    <col min="7" max="7" width="24.5" customWidth="1"/>
+    <col min="8" max="8" width="26.5" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
-      <c r="B1" t="s">
+    <row r="1" spans="1:9">
+      <c r="B1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="255">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="D2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" ht="229.5" spans="1:9">
-      <c r="A2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="120">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" ht="108" spans="1:9">
-      <c r="A3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="I3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="165">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" ht="148.5" spans="1:9">
-      <c r="A4" s="7" t="s">
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="H4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="I4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:9" ht="137" customHeight="1">
+      <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
+      <c r="D5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" ht="137" customHeight="1" spans="1:9">
-      <c r="A5" s="7" t="s">
+      <c r="F5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="I5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:9" ht="150">
+      <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="F5" t="s">
+      <c r="B6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H5" t="s">
+      <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" ht="135" spans="1:9">
-      <c r="A6" t="s">
+      <c r="F6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="H6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" t="s">
+      <c r="I6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:9" ht="32" customHeight="1">
+      <c r="A7" t="s">
         <v>45</v>
       </c>
-      <c r="F6" t="s">
+      <c r="B7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H6" t="s">
+      <c r="D7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="E7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" ht="32" customHeight="1" spans="1:9">
-      <c r="A7" t="s">
+      <c r="G7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="I7" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="214" customHeight="1">
+      <c r="A8" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="D8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="E8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" ht="214" customHeight="1" spans="1:9">
-      <c r="A8" t="s">
+      <c r="F8" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="H8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="I8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>64</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="24" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>66</v>
+      <c r="A2" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="B2" s="1">
         <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="1">
         <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="1">
         <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="1">
         <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="1">
         <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="1">
         <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="1">
         <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="1">
         <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="1">
         <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="1">
         <v>216</v>
       </c>
@@ -1795,7 +1220,7 @@
   <mergeCells count="1">
     <mergeCell ref="A2:A11"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/流程统计数据规则(1).xlsx
+++ b/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/流程统计数据规则(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangzuogong/IdeaProjects/ike-date/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1331C2F-BDCF-8046-A369-266F08557B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEBEDA9-641C-FD44-A914-F662CDED76D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>取值逻辑</t>
   </si>
   <si>
-    <t>日消耗数量</t>
-  </si>
-  <si>
     <t>采购申请</t>
   </si>
   <si>
@@ -496,6 +493,10 @@
   </si>
   <si>
     <t>日新增数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日消耗数量</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -880,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -899,25 +900,25 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
-        <v>1</v>
+      <c r="H1" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>0</v>
@@ -925,205 +926,205 @@
     </row>
     <row r="2" spans="1:9" ht="255">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="120">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="165">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="137" customHeight="1">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="150">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" t="s">
         <v>42</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="32" customHeight="1">
       <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>50</v>
-      </c>
       <c r="I7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="214" customHeight="1">
       <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" t="s">
         <v>55</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1148,7 +1149,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1">
         <v>203</v>
@@ -1156,7 +1157,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1">
         <v>201</v>

--- a/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/流程统计数据规则(1).xlsx
+++ b/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/流程统计数据规则(1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangzuogong/IdeaProjects/ike-date/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEBEDA9-641C-FD44-A914-F662CDED76D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E6E385-73F0-5C41-93EC-9C764E80FA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取值逻辑" sheetId="1" r:id="rId1"/>
@@ -330,9 +330,6 @@
     <t>评审完成日期在系统当日的询价单总数</t>
   </si>
   <si>
-    <t>订单执行（计划员）</t>
-  </si>
-  <si>
     <t>当前已审批且未创建装运单行数量
 （不含退库）</t>
   </si>
@@ -340,163 +337,177 @@
     <t>srm_poc_order_hd的订单创建日期（CREATE_TS）在系统上一年的1.1-系统当月底的采购订单行无对应的装运单号、行号的订单行数</t>
   </si>
   <si>
-    <t>（订单行创建装运单时间（最晚）-订单行首次审批通过时间）/订单行数</t>
+    <t>当日新增审批订单行数量</t>
+  </si>
+  <si>
+    <t>SRM订单的创建日期在系统当日的订单行总数</t>
+  </si>
+  <si>
+    <t>当日订单创建装运单行数量</t>
+  </si>
+  <si>
+    <t>SRM订单的创建日期在系统当日且有对应的装运单数据的，计算总订单行数。</t>
+  </si>
+  <si>
+    <t>已审核装运单未点结束成数量</t>
+  </si>
+  <si>
+    <t>当日装运单行创建数（已审核）</t>
+  </si>
+  <si>
+    <t>装运单头的状态变为“已审核”的日期在系统当日的装运单行数量</t>
+  </si>
+  <si>
+    <t>当日装运单点收结束行数量</t>
+  </si>
+  <si>
+    <t>装运单头的状态变为“已审核”的日期在系统当日的装运单行，且此装运单行的物流状态已做过“点收节点/结束指令”的装运单行数</t>
+  </si>
+  <si>
+    <t>物流周转（仓库）</t>
+  </si>
+  <si>
+    <t>装运单点收结束开始，未入库装运单行数量</t>
+  </si>
+  <si>
+    <t>srm_poc_delivery_note_hd中未删除DELETE_FLAG=0 and 已审核DN_STATUS="SENT_AUDITED" and 
+审核日期UPDATED_TS在系统上一年1.1-系统当月底；
+且装运单行物流状态已做“点收节点/结束指令”但未做“收货节点/结束指令”的装运单行总数。</t>
+  </si>
+  <si>
+    <t>（装运单行入库结束时间-点收结束时间）/装运单行数量</t>
+  </si>
+  <si>
+    <t>当日点收结束行数量</t>
+  </si>
+  <si>
+    <t>物流状态已做“点收节点/结束指令”的日期在系统当日的装运行总数</t>
+  </si>
+  <si>
+    <t>当日装运单migo行数量</t>
+  </si>
+  <si>
+    <t>物流状态已做“收货节点/结束指令”的日期在系统当日的装运行总数</t>
+  </si>
+  <si>
+    <t>未完成的检验批数量</t>
+  </si>
+  <si>
+    <t>问汤少</t>
+  </si>
+  <si>
+    <t>（完成检验批日期-创建检验批日期）/检验批数量</t>
+  </si>
+  <si>
+    <t>当日创建检验批数量（lps或者qms）</t>
+  </si>
+  <si>
+    <t>当日完成检验批数量</t>
+  </si>
+  <si>
+    <t>开票</t>
+  </si>
+  <si>
+    <t>采购订单/计划协议订单物料凭证未开票</t>
+  </si>
+  <si>
+    <t>（凭证发票创建日期-migo过账日期）/物料凭证行</t>
+  </si>
+  <si>
+    <t>当日新增采购订单物料凭证</t>
+  </si>
+  <si>
+    <t>srm_poc_md_hd的CREATED_TS在系统当日的物料凭证行数</t>
+  </si>
+  <si>
+    <t>当日采购订单凭证行创建发票数量</t>
+  </si>
+  <si>
+    <t>srm_poc_md_hd的CREATED_TS在系统当日的物料凭证行以及srm_poc_md_item的INVOICE_QTY(开票数）等于QTY（收货数）且对应的发票创建日期也在当日的物料凭行数。</t>
+  </si>
+  <si>
+    <t>外协采购组</t>
+  </si>
+  <si>
+    <t>外购采购组</t>
+  </si>
+  <si>
+    <t>（采购申请转订单日期-采购申请首次审批时间）/数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAP已审批未转订单的采购申请行数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本月平均周期（月度？）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日新增数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日消耗数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单执行（计划员）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>质检</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>订单行创建装运单时间（最晚）：订单行对应多张装运单的，取装运单创建日期最新的日期。
 订单行首次审批通过时间=SRM订单的创建日期（srm_poc_order_hd  CREATE_TS）
 订单行数：SRM订单的创建日期在系统当月且已创建过装运单的订单行总数</t>
-  </si>
-  <si>
-    <t>当日新增审批订单行数量</t>
-  </si>
-  <si>
-    <t>SRM订单的创建日期在系统当日的订单行总数</t>
-  </si>
-  <si>
-    <t>当日订单创建装运单行数量</t>
-  </si>
-  <si>
-    <t>SRM订单的创建日期在系统当日且有对应的装运单数据的，计算总订单行数。</t>
-  </si>
-  <si>
-    <t>订单配送（供应商）</t>
-  </si>
-  <si>
-    <t>已审核装运单未点结束成数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>（订单行创建装运单时间（最晚）-订单行首次审批通过时间）/订单行数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装运单范围：物流状态“点收节点/结束指令”的日期在系统当月的装运单行
+分子：SUM(装运单行“点收节点/结束指令”的日期-装运单行头状态的“已审核”日期)
+分母：物流状态“点收节点/结束指令”的日期在系统当月的装运单行总数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>（装运单行点收结束时间-装运单行审批通过时间）/已点收结束的装运单行数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>srm_poc_delivery_note_hd中未删除DELETE_FLAG=0 and 已审核DN_STATUS="SENT_AUDITED" and 
 审核日期UPDATED_TS在系统上一年1.1-系统当月底
 and srm_poc_delivery_note_item的物流状态current_status=null、点收节点/开始指令的装运单行总数</t>
-  </si>
-  <si>
-    <t>（装运单行点收结束时间-装运单行审批通过时间）/已点收结束的装运单行数量</t>
-  </si>
-  <si>
-    <t>装运单范围：物流状态“点收节点/结束指令”的日期在系统当月的装运单行
-分子：SUM(装运单行“点收节点/结束指令”的日期-装运单行头状态的“已审核”日期)
-分母：物流状态“点收节点/结束指令”的日期在系统当月的装运单行总数</t>
-  </si>
-  <si>
-    <t>当日装运单行创建数（已审核）</t>
-  </si>
-  <si>
-    <t>装运单头的状态变为“已审核”的日期在系统当日的装运单行数量</t>
-  </si>
-  <si>
-    <t>当日装运单点收结束行数量</t>
-  </si>
-  <si>
-    <t>装运单头的状态变为“已审核”的日期在系统当日的装运单行，且此装运单行的物流状态已做过“点收节点/结束指令”的装运单行数</t>
-  </si>
-  <si>
-    <t>物流周转（仓库）</t>
-  </si>
-  <si>
-    <t>装运单点收结束开始，未入库装运单行数量</t>
-  </si>
-  <si>
-    <t>srm_poc_delivery_note_hd中未删除DELETE_FLAG=0 and 已审核DN_STATUS="SENT_AUDITED" and 
-审核日期UPDATED_TS在系统上一年1.1-系统当月底；
-且装运单行物流状态已做“点收节点/结束指令”但未做“收货节点/结束指令”的装运单行总数。</t>
-  </si>
-  <si>
-    <t>（装运单行入库结束时间-点收结束时间）/装运单行数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>srm_poc_md_hd的CREATED_TS在系统上一年1.1-系统当月底；且srm_poc_md_item的INVOICE_QTY(开票数）不等于QTY（收货数）的物料凭证行总数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完全开票：srm_poc_md_item的INVOICE_QTY(开票数）等于QTY（收货数）的物料凭证行
+分子：SUM(已完全开票的物料凭证行对应的发票的最新创建日期-物料凭证行的创建日期（srm_poc_md_hd的CREATED_TS））
+分母：已完全开票的物料凭证行对应的发票的最新创建日期（srm_poc_md_invoice_hd的CREATE_TS）在系统当月的物料凭证行总数。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单配送（供应商）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>范围：“收货节点/结束指令”的日期在系统当月的装运单行
 分子：SUM(“收货节点/结束指令”的日期-“点收节点/结束指令”的日期)
 分母：“收货节点/结束指令”的日期在系统当月的装运单行
 总数</t>
-  </si>
-  <si>
-    <t>当日点收结束行数量</t>
-  </si>
-  <si>
-    <t>物流状态已做“点收节点/结束指令”的日期在系统当日的装运行总数</t>
-  </si>
-  <si>
-    <t>当日装运单migo行数量</t>
-  </si>
-  <si>
-    <t>物流状态已做“收货节点/结束指令”的日期在系统当日的装运行总数</t>
-  </si>
-  <si>
-    <t>质检</t>
-  </si>
-  <si>
-    <t>未完成的检验批数量</t>
-  </si>
-  <si>
-    <t>问汤少</t>
-  </si>
-  <si>
-    <t>（完成检验批日期-创建检验批日期）/检验批数量</t>
-  </si>
-  <si>
-    <t>当日创建检验批数量（lps或者qms）</t>
-  </si>
-  <si>
-    <t>当日完成检验批数量</t>
-  </si>
-  <si>
-    <t>开票</t>
-  </si>
-  <si>
-    <t>采购订单/计划协议订单物料凭证未开票</t>
-  </si>
-  <si>
-    <t>srm_poc_md_hd的CREATED_TS在系统上一年1.1-系统当月底；且srm_poc_md_item的INVOICE_QTY(开票数）不等于QTY（收货数）的物料凭证行总数</t>
-  </si>
-  <si>
-    <t>（凭证发票创建日期-migo过账日期）/物料凭证行</t>
-  </si>
-  <si>
-    <t>已完全开票：srm_poc_md_item的INVOICE_QTY(开票数）等于QTY（收货数）的物料凭证行
-分子：SUM(已完全开票的物料凭证行对应的发票的最新创建日期-物料凭证行的创建日期（srm_poc_md_hd的CREATED_TS））
-分母：已完全开票的物料凭证行对应的发票的最新创建日期（srm_poc_md_invoice_hd的CREATE_TS）在系统当月的物料凭证行总数。</t>
-  </si>
-  <si>
-    <t>当日新增采购订单物料凭证</t>
-  </si>
-  <si>
-    <t>srm_poc_md_hd的CREATED_TS在系统当日的物料凭证行数</t>
-  </si>
-  <si>
-    <t>当日采购订单凭证行创建发票数量</t>
-  </si>
-  <si>
-    <t>srm_poc_md_hd的CREATED_TS在系统当日的物料凭证行以及srm_poc_md_item的INVOICE_QTY(开票数）等于QTY（收货数）且对应的发票创建日期也在当日的物料凭行数。</t>
-  </si>
-  <si>
-    <t>外协采购组</t>
-  </si>
-  <si>
-    <t>外购采购组</t>
-  </si>
-  <si>
-    <t>（采购申请转订单日期-采购申请首次审批时间）/数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAP已审批未转订单的采购申请行数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>本月平均周期（月度？）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日新增数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日消耗数量</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -595,14 +606,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -881,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -899,26 +910,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="B1" s="7" t="s">
-        <v>63</v>
+      <c r="B1" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>64</v>
+      <c r="D1" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>65</v>
+      <c r="F1" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>66</v>
+      <c r="H1" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>0</v>
@@ -928,14 +939,14 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>62</v>
+      <c r="B2" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>61</v>
+      <c r="D2" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>3</v>
@@ -983,148 +994,148 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="165">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="H4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:9" ht="137" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="s">
+      <c r="C5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="137" customHeight="1">
-      <c r="A5" t="s">
+      <c r="H5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="150">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:9" ht="32" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
         <v>39</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="32" customHeight="1">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>49</v>
-      </c>
       <c r="I7" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="214" customHeight="1">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1149,70 +1160,70 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
-        <v>60</v>
+      <c r="A2" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="B2" s="1">
         <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="1">
         <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1">
         <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1">
         <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1">
         <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1">
         <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="1">
         <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="1">
         <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="1">
         <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="1">
         <v>216</v>
       </c>

--- a/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/流程统计数据规则(1).xlsx
+++ b/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/流程统计数据规则(1).xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangzuogong/IdeaProjects/ike-date/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E6E385-73F0-5C41-93EC-9C764E80FA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="取值逻辑" sheetId="1" r:id="rId1"/>
@@ -36,18 +30,32 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
+    <t>当前数量</t>
+  </si>
+  <si>
     <t>取值逻辑</t>
   </si>
   <si>
+    <t>本月平均周期（月度？）</t>
+  </si>
+  <si>
+    <t>日新增数量</t>
+  </si>
+  <si>
+    <t>日消耗数量</t>
+  </si>
+  <si>
     <t>采购申请</t>
   </si>
   <si>
+    <t>SAP已审批未转订单的采购申请行数量</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -61,7 +69,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -72,7 +79,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -86,7 +92,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -97,7 +102,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -105,15 +109,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
+    <t>（采购申请转订单日期-采购申请首次审批时间）/数量</t>
+  </si>
+  <si>
+    <r>
       <t>后台表：EKPO
 1.根据BANFN（采购申请号）和BNFPO（采购申请行号）找到EBELN（采购订单号）
 后台表：EKKO
@@ -124,7 +123,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -135,7 +133,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -147,7 +144,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -158,7 +154,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -170,7 +165,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -181,7 +175,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -197,7 +190,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -208,7 +200,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -219,7 +210,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -235,7 +225,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -246,7 +235,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -257,7 +245,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -268,7 +255,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -279,7 +265,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -294,6 +279,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>状态具体怎么取咨询文工</t>
     </r>
     <r>
@@ -301,7 +293,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -330,6 +321,9 @@
     <t>评审完成日期在系统当日的询价单总数</t>
   </si>
   <si>
+    <t>订单执行（计划员）</t>
+  </si>
+  <si>
     <t>当前已审批且未创建装运单行数量
 （不含退库）</t>
   </si>
@@ -337,6 +331,14 @@
     <t>srm_poc_order_hd的订单创建日期（CREATE_TS）在系统上一年的1.1-系统当月底的采购订单行无对应的装运单号、行号的订单行数</t>
   </si>
   <si>
+    <t>（订单行创建装运单时间（最晚）-订单行首次审批通过时间）/订单行数</t>
+  </si>
+  <si>
+    <t>订单行创建装运单时间（最晚）：订单行对应多张装运单的，取装运单创建日期最新的日期。
+订单行首次审批通过时间=SRM订单的创建日期（srm_poc_order_hd  CREATE_TS）
+订单行数：SRM订单的创建日期在系统当月且已创建过装运单的订单行总数</t>
+  </si>
+  <si>
     <t>当日新增审批订单行数量</t>
   </si>
   <si>
@@ -349,7 +351,23 @@
     <t>SRM订单的创建日期在系统当日且有对应的装运单数据的，计算总订单行数。</t>
   </si>
   <si>
+    <t>订单配送（供应商）</t>
+  </si>
+  <si>
     <t>已审核装运单未点结束成数量</t>
+  </si>
+  <si>
+    <t>srm_poc_delivery_note_hd中未删除DELETE_FLAG=0 and 已审核DN_STATUS="SENT_AUDITED" and 
+审核日期UPDATED_TS在系统上一年1.1-系统当月底
+and srm_poc_delivery_note_item的物流状态current_status=null、点收节点/开始指令的装运单行总数</t>
+  </si>
+  <si>
+    <t>（装运单行点收结束时间-装运单行审批通过时间）/已点收结束的装运单行数量</t>
+  </si>
+  <si>
+    <t>装运单范围：物流状态“点收节点/结束指令”的日期在系统当月的装运单行
+分子：SUM(装运单行“点收节点/结束指令”的日期-装运单行头状态的“已审核”日期)
+分母：物流状态“点收节点/结束指令”的日期在系统当月的装运单行总数</t>
   </si>
   <si>
     <t>当日装运单行创建数（已审核）</t>
@@ -376,146 +394,90 @@
   </si>
   <si>
     <t>（装运单行入库结束时间-点收结束时间）/装运单行数量</t>
-  </si>
-  <si>
-    <t>当日点收结束行数量</t>
-  </si>
-  <si>
-    <t>物流状态已做“点收节点/结束指令”的日期在系统当日的装运行总数</t>
-  </si>
-  <si>
-    <t>当日装运单migo行数量</t>
-  </si>
-  <si>
-    <t>物流状态已做“收货节点/结束指令”的日期在系统当日的装运行总数</t>
-  </si>
-  <si>
-    <t>未完成的检验批数量</t>
-  </si>
-  <si>
-    <t>问汤少</t>
-  </si>
-  <si>
-    <t>（完成检验批日期-创建检验批日期）/检验批数量</t>
-  </si>
-  <si>
-    <t>当日创建检验批数量（lps或者qms）</t>
-  </si>
-  <si>
-    <t>当日完成检验批数量</t>
-  </si>
-  <si>
-    <t>开票</t>
-  </si>
-  <si>
-    <t>采购订单/计划协议订单物料凭证未开票</t>
-  </si>
-  <si>
-    <t>（凭证发票创建日期-migo过账日期）/物料凭证行</t>
-  </si>
-  <si>
-    <t>当日新增采购订单物料凭证</t>
-  </si>
-  <si>
-    <t>srm_poc_md_hd的CREATED_TS在系统当日的物料凭证行数</t>
-  </si>
-  <si>
-    <t>当日采购订单凭证行创建发票数量</t>
-  </si>
-  <si>
-    <t>srm_poc_md_hd的CREATED_TS在系统当日的物料凭证行以及srm_poc_md_item的INVOICE_QTY(开票数）等于QTY（收货数）且对应的发票创建日期也在当日的物料凭行数。</t>
-  </si>
-  <si>
-    <t>外协采购组</t>
-  </si>
-  <si>
-    <t>外购采购组</t>
-  </si>
-  <si>
-    <t>（采购申请转订单日期-采购申请首次审批时间）/数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAP已审批未转订单的采购申请行数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>本月平均周期（月度？）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日新增数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日消耗数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单执行（计划员）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>质检</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单行创建装运单时间（最晚）：订单行对应多张装运单的，取装运单创建日期最新的日期。
-订单行首次审批通过时间=SRM订单的创建日期（srm_poc_order_hd  CREATE_TS）
-订单行数：SRM订单的创建日期在系统当月且已创建过装运单的订单行总数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>（订单行创建装运单时间（最晚）-订单行首次审批通过时间）/订单行数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>装运单范围：物流状态“点收节点/结束指令”的日期在系统当月的装运单行
-分子：SUM(装运单行“点收节点/结束指令”的日期-装运单行头状态的“已审核”日期)
-分母：物流状态“点收节点/结束指令”的日期在系统当月的装运单行总数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>（装运单行点收结束时间-装运单行审批通过时间）/已点收结束的装运单行数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>srm_poc_delivery_note_hd中未删除DELETE_FLAG=0 and 已审核DN_STATUS="SENT_AUDITED" and 
-审核日期UPDATED_TS在系统上一年1.1-系统当月底
-and srm_poc_delivery_note_item的物流状态current_status=null、点收节点/开始指令的装运单行总数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>srm_poc_md_hd的CREATED_TS在系统上一年1.1-系统当月底；且srm_poc_md_item的INVOICE_QTY(开票数）不等于QTY（收货数）的物料凭证行总数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完全开票：srm_poc_md_item的INVOICE_QTY(开票数）等于QTY（收货数）的物料凭证行
-分子：SUM(已完全开票的物料凭证行对应的发票的最新创建日期-物料凭证行的创建日期（srm_poc_md_hd的CREATED_TS））
-分母：已完全开票的物料凭证行对应的发票的最新创建日期（srm_poc_md_invoice_hd的CREATE_TS）在系统当月的物料凭证行总数。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单配送（供应商）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>范围：“收货节点/结束指令”的日期在系统当月的装运单行
 分子：SUM(“收货节点/结束指令”的日期-“点收节点/结束指令”的日期)
 分母：“收货节点/结束指令”的日期在系统当月的装运单行
 总数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日点收结束行数量</t>
+  </si>
+  <si>
+    <t>物流状态已做“点收节点/结束指令”的日期在系统当日的装运行总数</t>
+  </si>
+  <si>
+    <t>当日装运单migo行数量</t>
+  </si>
+  <si>
+    <t>物流状态已做“收货节点/结束指令”的日期在系统当日的装运行总数</t>
+  </si>
+  <si>
+    <t>质检</t>
+  </si>
+  <si>
+    <t>未完成的检验批数量</t>
+  </si>
+  <si>
+    <t>问汤少</t>
+  </si>
+  <si>
+    <t>（完成检验批日期-创建检验批日期）/检验批数量</t>
+  </si>
+  <si>
+    <t>当日创建检验批数量（lps或者qms）</t>
+  </si>
+  <si>
+    <t>当日完成检验批数量</t>
+  </si>
+  <si>
+    <t>开票</t>
+  </si>
+  <si>
+    <t>采购订单/计划协议订单物料凭证未开票</t>
+  </si>
+  <si>
+    <t>srm_poc_md_hd的CREATED_TS在系统上一年1.1-系统当月底；且srm_poc_md_item的INVOICE_QTY(开票数）不等于QTY（收货数）的物料凭证行总数</t>
+  </si>
+  <si>
+    <t>（凭证发票创建日期-migo过账日期）/物料凭证行</t>
+  </si>
+  <si>
+    <t>已完全开票：srm_poc_md_item的INVOICE_QTY(开票数）等于QTY（收货数）的物料凭证行
+分子：SUM(已完全开票的物料凭证行对应的发票的最新创建日期-物料凭证行的创建日期（srm_poc_md_hd的CREATED_TS））
+分母：已完全开票的物料凭证行对应的发票的最新创建日期（srm_poc_md_invoice_hd的CREATE_TS）在系统当月的物料凭证行总数。</t>
+  </si>
+  <si>
+    <t>当日新增采购订单物料凭证</t>
+  </si>
+  <si>
+    <t>srm_poc_md_hd的CREATED_TS在系统当日的物料凭证行数</t>
+  </si>
+  <si>
+    <t>当日采购订单凭证行创建发票数量</t>
+  </si>
+  <si>
+    <t>srm_poc_md_hd的CREATED_TS在系统当日的物料凭证行以及srm_poc_md_item的INVOICE_QTY(开票数）等于QTY（收货数）且对应的发票创建日期也在当日的物料凭行数。</t>
+  </si>
+  <si>
+    <t>外协采购组</t>
+  </si>
+  <si>
+    <t>外购采购组</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,29 +487,171 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,8 +664,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -584,17 +874,265 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -606,27 +1144,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -884,346 +1463,347 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.1666666666667" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
-    <col min="4" max="4" width="58.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.1640625" customWidth="1"/>
-    <col min="6" max="6" width="41.83203125" customWidth="1"/>
+    <col min="4" max="4" width="58.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.1666666666667" customWidth="1"/>
+    <col min="6" max="6" width="41.8333333333333" customWidth="1"/>
     <col min="7" max="7" width="24.5" customWidth="1"/>
     <col min="8" max="8" width="26.5" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="2:9">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="259.2" spans="1:9">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="115.2" spans="1:9">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" ht="158.4" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" ht="137" customHeight="1" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" ht="144" spans="1:9">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" ht="32" customHeight="1" spans="1:9">
+      <c r="A7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="E7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="G7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>0</v>
+      <c r="I7" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="255">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="120">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="165">
-      <c r="A4" s="6" t="s">
+    <row r="8" ht="214" customHeight="1" spans="1:9">
+      <c r="A8" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="B8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="137" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="E8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="150">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="32" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="214" customHeight="1">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24" customHeight="1">
+    <row r="1" ht="24" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
-        <v>49</v>
+      <c r="A2" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B2" s="1">
         <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="2"/>
       <c r="B3" s="1">
         <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="7"/>
+      <c r="A4" s="2"/>
       <c r="B4" s="1">
         <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="2"/>
       <c r="B5" s="1">
         <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="2"/>
       <c r="B6" s="1">
         <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="2"/>
       <c r="B7" s="1">
         <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="2"/>
       <c r="B8" s="1">
         <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="2"/>
       <c r="B9" s="1">
         <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="7"/>
+      <c r="A10" s="2"/>
       <c r="B10" s="1">
         <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="7"/>
+      <c r="A11" s="2"/>
       <c r="B11" s="1">
         <v>216</v>
       </c>
@@ -1232,7 +1812,7 @@
   <mergeCells count="1">
     <mergeCell ref="A2:A11"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>